--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7173,6 +7173,98 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45205.86458333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:37</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-rwd-molenbeek/8W6gxoTH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,6 +7265,282 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:05</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-leuven/xnVGgnbh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.76041666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-kortrijk/O2TOiQS4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.86458333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-kv-mechelen/Q71by5rO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,38 +2513,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -7538,6 +7538,190 @@
       <c r="V77" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-kv-mechelen/Q71by5rO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45207.5625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:16</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-club-brugge/tKy8e8Tu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 09:08</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-eupen/4b02zPcU/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,190 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-eupen/4b02zPcU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-genk/GxUKh6Db/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45207.80208333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>01/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-royale-union-sg/fNuCfSrn/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,38 +2513,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,98 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-royale-union-sg/fNuCfSrn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45219.86458333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-eupen/fi77q2zo/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,282 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-eupen/fi77q2zo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45220.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-club-brugge/W8jj8oDo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45220.76041666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:08</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/rwd-molenbeek-westerlo/2gSSjprB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45220.86458333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-antwerp/4Mlb6Psb/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8277,6 +8277,374 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45221.5625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>4</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-kv-mechelen/Aakf75Si/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-gent/hrLulrST/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-anderlecht/bLLykOCN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45221.80208333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>10/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:10</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/leuven-st-truiden/pIHXk4cH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,742 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45226.86458333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>27/10/2023 19:49</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-rwd-molenbeek/4zUWKOdi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:30</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:20</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-cercle-brugge/hd0E2ssN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45227.76041666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-charleroi/OMeA3NRG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45227.86458333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-leuven/pWd643CA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-antwerp/27715qc4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-royale-union-sg/xUyocL4p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-liege/jXukduKj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45228.80208333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-genk/WnaI11dT/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9381,6 +9381,98 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45233.86458333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-eupen/UsaIchee/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,38 +2513,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,282 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-eupen/UsaIchee/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/rwd-molenbeek-kortrijk/bH3MdCA1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45234.76041666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/leuven-westerlo/2TrxIMtA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45234.86458333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:16</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:16</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:16</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-genk/8SA9aEQr/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9749,6 +9749,98 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-anderlecht/ji0EbYuk/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -9838,6 +9838,282 @@
       <c r="V102" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-anderlecht/ji0EbYuk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-kv-mechelen/rRSzKrCc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-club-brugge/OxpYI2R3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45235.80208333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-gent/djrtHtdG/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,6 +10117,98 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45240.86458333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:09</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:09</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:09</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-st-truiden/x82QeWP7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,38 +2513,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -10206,6 +10206,282 @@
       <c r="V106" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-st-truiden/x82QeWP7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>6</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-st-liege/x8OeBBPf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45241.76041666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-rwd-molenbeek/O0rLHDnR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45241.86458333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-charleroi/roPiCiAl/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-charleroi/roPiCiAl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-cercle-brugge/vDt9KF28/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,38 +2513,38 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2552,24 +2552,24 @@
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.31</v>
+        <v>5.52</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.41</v>
+        <v>5.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.52</v>
+        <v>6.31</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.25</v>
+        <v>6.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:58</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,282 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-cercle-brugge/vDt9KF28/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:36</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-leuven/pAqHIgXK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:05</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-anderlecht/4fQmDXfr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45242.80208333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:14</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-kortrijk/jmpDJZHE/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10853,6 +10853,98 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45254.86458333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-antwerp/jBSaAVv1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.52</v>
+        <v>6.31</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.25</v>
+        <v>6.41</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:58</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.31</v>
+        <v>5.52</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.41</v>
+        <v>5.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
         </is>
       </c>
     </row>
@@ -10942,6 +10942,650 @@
       <c r="V114" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-antwerp/jBSaAVv1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45255.66666666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>9</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-eupen/YZH49kf7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45255.76041666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:07</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:07</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-westerlo/OIaQQjPs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45255.86458333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-genk/QsKkXhnE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-royale-union-sg/CQG8899D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45256.66666666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/leuven-club-brugge/4YIgWC1K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-rwd-molenbeek/nc8bVWGQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45256.80208333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>15/11/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-kv-mechelen/IuaUPAvl/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.31</v>
+        <v>5.52</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.41</v>
+        <v>5.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.52</v>
+        <v>6.31</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.25</v>
+        <v>6.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:58</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-kv-mechelen/IuaUPAvl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45261.86458333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>3</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-anderlecht/E7hwOl90/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11681,6 +11681,282 @@
         </is>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/rwd-molenbeek-charleroi/dWcYOUgf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45262.76041666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-kortrijk/befkLngJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45262.86458333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-leuven/00YXqWVJ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11957,6 +11957,1846 @@
         </is>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:25</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-gent/hbisN8O6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-st-truiden/viXyqjoQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:19</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-st-liege/WrP3vAgs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45263.80208333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:14</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:14</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:14</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-cercle-brugge/nLjoMSwD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45268.86458333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-westerlo/KQWLY5NI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-antwerp/0OGKzSh6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45269.76041666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:11</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-leuven/CKJ7d9FP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45269.86458333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:18</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:43</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-rwd-molenbeek/61HGy8w0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-club-brugge/vFFOZo8C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45270.66666666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>3</v>
+      </c>
+      <c r="J135" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-genk/bHVPXPxP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45270.77083333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-st-liege/hbDCxlOg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45270.80208333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-royale-union-sg/AZN7wU8m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45275.86458333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-eupen/W40vimwm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/leuven-cercle-brugge/jRYRUdMp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45276.76041666666</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/rwd-molenbeek-st-truiden/ltBZiTNt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45276.86458333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-charleroi/bVAbnPiI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-gent/IL2jloN5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/royale-union-sg-kv-mechelen/0phem5xC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45277.77083333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-anderlecht/Aearj7hg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45277.80208333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:07</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>10/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-kortrijk/vV3nkR7a/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cercle Brugge KSV</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,38 +2421,38 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Club Brugge KV</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2.55</v>
+        <v>3.76</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.52</v>
+        <v>8.35</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.74</v>
+        <v>5.47</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2460,24 +2460,24 @@
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.49</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 18:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.71</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>13/08/2023 15:56</t>
+          <t>13/08/2023 15:59</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Cercle Brugge KSV</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Club Brugge KV</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.76</v>
+        <v>2.55</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>8.35</v>
+        <v>2.52</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>13/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>06/08/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>13/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>06/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>06/08/2023 18:42</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>2.71</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>13/08/2023 15:59</t>
+          <t>13/08/2023 15:56</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-club-brugge/lWaC8fiN/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-genk/SGB3AGMA/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:57</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>5.52</v>
+        <v>6.31</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>5.25</v>
+        <v>6.41</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:58</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.31</v>
+        <v>5.52</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.41</v>
+        <v>5.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:58</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,190 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-kortrijk/vV3nkR7a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45280.77083333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-kortrijk/823Cx9ui/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45280.86458333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:18</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>20/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-st-liege/ObgyX49S/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V147"/>
+  <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13981,6 +13981,98 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45281.86458333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>21/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-leuven/fJ5OZ6P9/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14073,6 +14073,98 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45282.86458333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>6</v>
+      </c>
+      <c r="J149" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>22/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/rwd-molenbeek-club-brugge/xreTYQvG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14165,6 +14165,1110 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45283.66666666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/eupen-royale-union-sg/GYgXXpfM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45283.76041666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:14</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-westerlo/UHXVTGyi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45283.76041666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:06</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-truiden-charleroi/ng2GyTfc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45283.86458333334</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>17/12/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>23/12/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-genk/tG1KzmA3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45286.5625</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>26/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>26/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>26/12/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-antwerp/8WU7RrXk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45286.66666666666</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kortrijk-gent/Q7u3SOHq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45286.66666666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>26/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/leuven-eupen/W4G2mQg9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45286.77083333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>3</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>26/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/westerlo-rwd-molenbeek/zwNgknPd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45286.86458333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>26/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>26/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>26/12/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/club-brugge-royale-union-sg/ETLcl6v3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45287.77083333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>27/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-st-truiden/4IEAo4OL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45287.86458333334</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-kv-mechelen/AeF6np9F/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45287.86458333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>23/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>27/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-cercle-brugge/MZYBQ2nd/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
